--- a/Raise3D_Pro2/StepSizes.xlsx
+++ b/Raise3D_Pro2/StepSizes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZZZ Files\YangsFiles\Projects\3DPrinterCalibrationAndTuning\Raise3D_Pro2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C1208-CDDB-4468-BA7E-641B2A022109}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA7EBE2-0AD6-4CF7-851E-E124F9704B1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,8 +48,8 @@
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -94,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -102,9 +102,12 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +391,7 @@
   <dimension ref="A1:Q1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,10 +433,10 @@
         <f>A2*$D$2</f>
         <v>7.8125000000000004E-4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="12">
         <v>0.125</v>
       </c>
     </row>
@@ -449,10 +452,10 @@
         <f t="shared" ref="E3:E66" si="1">A3*$D$2</f>
         <v>1.5625000000000001E-3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -629,11 +632,11 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="10">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="9">
         <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
@@ -837,7 +840,7 @@
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="10">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>

--- a/Raise3D_Pro2/StepSizes.xlsx
+++ b/Raise3D_Pro2/StepSizes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZZZ Files\YangsFiles\Projects\3DPrinterCalibrationAndTuning\Raise3D_Pro2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD44D40E-43C7-404D-A524-2A43B6FD6CE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5505442C-299E-422F-82CD-39490DADB684}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="18290" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1660" yWindow="2120" windowWidth="13650" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -101,8 +101,8 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:Q1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
